--- a/Sample Datasets/shareholder sample data.xlsx
+++ b/Sample Datasets/shareholder sample data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive - National University of Singapore\NUS\Internships\GovTech\Project - Network Graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dev\GovTech Projects\Graphdb_govtech\Sample Datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{992F817E-64D5-4A4A-B69D-F5A57217C2C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{D7210F6A-60A3-41A0-8172-F6818B638F14}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D295FAB-AC4C-4D08-9DCF-FD9CB2E9D221}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{84258B7E-50EB-474A-98D6-95790CA7AD9F}"/>
   </bookViews>
@@ -464,7 +464,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -636,18 +636,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -860,14 +860,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F394FE0A-15F5-4C85-A8D8-48A6B54D2040}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EBD8343-023D-40A9-B7C8-CF2242DA836E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -880,6 +872,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F394FE0A-15F5-4C85-A8D8-48A6B54D2040}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
